--- a/biology/Botanique/Callisie_rampante/Callisie_rampante.xlsx
+++ b/biology/Botanique/Callisie_rampante/Callisie_rampante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callisia repens
 La Callisie rampante (Callisia repens (Jacq.) L.) est une espèce de plantes de la famille des Commelinacées. C'est une plante rampante succulente vivant dans les forêts d'Amérique tropicale. Elle se reproduit par bouturage des tiges. Cette espèce est indigène de la Guadeloupe et de la Martinique et elle a été introduite en Polynésie française.
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (17 juillet 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Callisia repens var. ciliata Roem. &amp; Schult.
 variété Callisia repens var. mandonii C.B. Clarke</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sève de la Callisie rampante a une consistance mucilagineuse. Elle est riche en eau, calcium et sels minéraux. Cette petite plante grasse rampante est donc utilisée comme plante fourragère ou comme aliment frais en complément alimentaire destiné aux animaux de compagnie : oiseaux (perruches), rongeurs (sauf cochon d'inde chez qui le calcium doit être donné en quantité limitée), tortues, caméléons[2]…
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sève de la Callisie rampante a une consistance mucilagineuse. Elle est riche en eau, calcium et sels minéraux. Cette petite plante grasse rampante est donc utilisée comme plante fourragère ou comme aliment frais en complément alimentaire destiné aux animaux de compagnie : oiseaux (perruches), rongeurs (sauf cochon d'inde chez qui le calcium doit être donné en quantité limitée), tortues, caméléons…
 Elle est aussi commercialisée comme plante d'appartement pour son port retombant et le parfum de violette de ses fleurs blanches. Une forte lumière fait rougir le feuillage, mais la plante craint toutefois le soleil direct. Elle se reproduit facilement par bouturage. On peut la mettre à l'extérieur durant les demi-saisons, mais gare aux amateurs, dont les escargots.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Plante envahissante</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distribuée sous la forme de plante cultivée pour les suspensions décoratives, sa croissance rapide, sa tolérance à divers environnements et l'effet couvre-sol de cette callisie en font une espèce qui peut se répandre très rapidement, étouffant les plantes locales ou les empêchant de germer[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distribuée sous la forme de plante cultivée pour les suspensions décoratives, sa croissance rapide, sa tolérance à divers environnements et l'effet couvre-sol de cette callisie en font une espèce qui peut se répandre très rapidement, étouffant les plantes locales ou les empêchant de germer.
 </t>
         </is>
       </c>
